--- a/学生信息 - 副本.xlsx
+++ b/学生信息 - 副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王皓玉\Desktop\newfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F36F1-8DAC-4D03-8193-D8038296167E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F0C6F-F6ED-4682-9F85-4187B5A254F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="L23">
         <v>0</v>
